--- a/CNIntelligibility/intelligibility_proportion.xlsx
+++ b/CNIntelligibility/intelligibility_proportion.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA31"/>
+  <dimension ref="A1:Y31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -516,57 +516,47 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>i66.1_intelligibility_proportion</t>
+          <t>i70_intelligibility_proportion</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>i70_intelligibility_proportion</t>
+          <t>s58_intelligibility_proportion</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>s58_intelligibility_proportion</t>
+          <t>s62_intelligibility_proportion</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>s62_intelligibility_proportion</t>
+          <t>s66_intelligibility_proportion</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>s66_intelligibility_proportion</t>
+          <t>s70_intelligibility_proportion</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>s70_intelligibility_proportion</t>
+          <t>v58_intelligibility_proportion</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>v58_intelligibility_proportion</t>
+          <t>v62_intelligibility_proportion</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>v62_intelligibility_proportion</t>
+          <t>v66_intelligibility_proportion</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>v66_intelligibility_proportion</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
           <t>v70_intelligibility_proportion</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>空白_intelligibility_proportion</t>
         </is>
       </c>
     </row>
@@ -580,79 +570,73 @@
         <v>0.28007128007128</v>
       </c>
       <c r="C2" t="n">
-        <v>0.493414300376326</v>
+        <v>0.4934143003763256</v>
       </c>
       <c r="D2" t="n">
         <v>0.22638326585695</v>
       </c>
       <c r="E2" t="n">
-        <v>0.260204081632653</v>
+        <v>0.2602040816326531</v>
       </c>
       <c r="F2" t="n">
-        <v>0.5805405405405401</v>
+        <v>0.5805405405405405</v>
       </c>
       <c r="G2" t="n">
-        <v>0.265130234933606</v>
+        <v>0.2651302349336057</v>
       </c>
       <c r="H2" t="n">
-        <v>0.520555914673562</v>
+        <v>0.5205559146735618</v>
       </c>
       <c r="I2" t="n">
-        <v>0.326396348012889</v>
+        <v>0.3263963480128893</v>
       </c>
       <c r="J2" t="n">
-        <v>0.268154761904762</v>
+        <v>0.2681547619047619</v>
       </c>
       <c r="K2" t="n">
-        <v>0.366997708174179</v>
+        <v>0.3669977081741787</v>
       </c>
       <c r="L2" t="n">
-        <v>0.319318181818182</v>
+        <v>0.3193181818181818</v>
       </c>
       <c r="M2" t="n">
-        <v>0.532565789473684</v>
+        <v>0.5325657894736842</v>
       </c>
       <c r="N2" t="n">
-        <v>0.515873015873016</v>
+        <v>0.5158730158730158</v>
       </c>
       <c r="O2" t="n">
-        <v>0.664704645785159</v>
+        <v>0.6647046457851586</v>
       </c>
       <c r="P2" t="n">
-        <v>0.28202614379085</v>
+        <v>0.2820261437908496</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.28202614379085</v>
+        <v>0.1025939959195569</v>
       </c>
       <c r="R2" t="n">
-        <v>0.102593995919557</v>
+        <v>0.5979954034729316</v>
       </c>
       <c r="S2" t="n">
-        <v>0.597995403472932</v>
+        <v>0.3366666666666666</v>
       </c>
       <c r="T2" t="n">
-        <v>0.336666666666667</v>
+        <v>0.7737967914438503</v>
       </c>
       <c r="U2" t="n">
-        <v>0.7737967914438501</v>
+        <v>0.648989898989899</v>
       </c>
       <c r="V2" t="n">
-        <v>0.648989898989899</v>
+        <v>0.6017138599105812</v>
       </c>
       <c r="W2" t="n">
-        <v>0.601713859910581</v>
+        <v>0.5871212121212122</v>
       </c>
       <c r="X2" t="n">
-        <v>0.587121212121212</v>
+        <v>0.2597549909255898</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.25975499092559</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>0.406926406926407</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>0.375968259965993</v>
+        <v>0.4069264069264069</v>
       </c>
     </row>
     <row r="3">
@@ -662,82 +646,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.863636363636364</v>
+        <v>0.8636363636363636</v>
       </c>
       <c r="C3" t="n">
-        <v>0.468092105263158</v>
+        <v>0.4680921052631579</v>
       </c>
       <c r="D3" t="n">
-        <v>0.366892236976507</v>
+        <v>0.3668922369765066</v>
       </c>
       <c r="E3" t="n">
-        <v>0.131474407944996</v>
+        <v>0.1314744079449961</v>
       </c>
       <c r="F3" t="n">
-        <v>0.573578342407744</v>
+        <v>0.5735783424077435</v>
       </c>
       <c r="G3" t="n">
-        <v>0.561237373737374</v>
+        <v>0.5612373737373737</v>
       </c>
       <c r="H3" t="n">
-        <v>0.463163942798774</v>
+        <v>0.4631639427987742</v>
       </c>
       <c r="I3" t="n">
-        <v>0.376190476190476</v>
+        <v>0.3761904761904762</v>
       </c>
       <c r="J3" t="n">
-        <v>0.326799766831827</v>
+        <v>0.3267997668318274</v>
       </c>
       <c r="K3" t="n">
-        <v>0.294117647058823</v>
+        <v>0.2941176470588235</v>
       </c>
       <c r="L3" t="n">
-        <v>0.689194870716838</v>
+        <v>0.6891948707168383</v>
       </c>
       <c r="M3" t="n">
-        <v>0.612103174603175</v>
+        <v>0.6121031746031746</v>
       </c>
       <c r="N3" t="n">
-        <v>0.707567567567568</v>
+        <v>0.7075675675675676</v>
       </c>
       <c r="O3" t="n">
         <v>0.582034632034632</v>
       </c>
       <c r="P3" t="n">
-        <v>0.712990561351217</v>
+        <v>0.7129905613512171</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.712990561351217</v>
+        <v>0.5189393939393939</v>
       </c>
       <c r="R3" t="n">
-        <v>0.518939393939394</v>
+        <v>0.6365891207663359</v>
       </c>
       <c r="S3" t="n">
-        <v>0.636589120766336</v>
+        <v>0.2581901181525242</v>
       </c>
       <c r="T3" t="n">
-        <v>0.258190118152524</v>
+        <v>0.3959968602825746</v>
       </c>
       <c r="U3" t="n">
-        <v>0.395996860282575</v>
+        <v>0.1875</v>
       </c>
       <c r="V3" t="n">
-        <v>0.1875</v>
+        <v>0.5677235772357724</v>
       </c>
       <c r="W3" t="n">
-        <v>0.567723577235772</v>
+        <v>0.5568488529014846</v>
       </c>
       <c r="X3" t="n">
-        <v>0.556848852901485</v>
+        <v>0.5709335709335709</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.570933570933571</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>0.744602456367162</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>0.532023427167958</v>
+        <v>0.7446024563671623</v>
       </c>
     </row>
     <row r="4">
@@ -747,82 +725,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.419544740973312</v>
+        <v>0.4195447409733124</v>
       </c>
       <c r="C4" t="n">
-        <v>0.673611111111111</v>
+        <v>0.6736111111111112</v>
       </c>
       <c r="D4" t="n">
-        <v>0.393939393939394</v>
+        <v>0.3939393939393939</v>
       </c>
       <c r="E4" t="n">
-        <v>0.449346405228758</v>
+        <v>0.4493464052287582</v>
       </c>
       <c r="F4" t="n">
-        <v>0.583655083655084</v>
+        <v>0.5836550836550837</v>
       </c>
       <c r="G4" t="n">
         <v>0.11875</v>
       </c>
       <c r="H4" t="n">
-        <v>0.624358535750941</v>
+        <v>0.6243585357509408</v>
       </c>
       <c r="I4" t="n">
-        <v>0.134508889536578</v>
+        <v>0.1345088895365782</v>
       </c>
       <c r="J4" t="n">
-        <v>0.46482683982684</v>
+        <v>0.4648268398268398</v>
       </c>
       <c r="K4" t="n">
-        <v>0.705911574764034</v>
+        <v>0.7059115747640339</v>
       </c>
       <c r="L4" t="n">
-        <v>0.495093795093795</v>
+        <v>0.4950937950937951</v>
       </c>
       <c r="M4" t="n">
-        <v>0.714054054054054</v>
+        <v>0.7140540540540541</v>
       </c>
       <c r="N4" t="n">
-        <v>0.382864488808227</v>
+        <v>0.3828644888082275</v>
       </c>
       <c r="O4" t="n">
-        <v>0.687718164188752</v>
+        <v>0.6877181641887524</v>
       </c>
       <c r="P4" t="n">
-        <v>0.479105691056911</v>
+        <v>0.4791056910569106</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.479105691056911</v>
+        <v>0.3054993252361673</v>
       </c>
       <c r="R4" t="n">
-        <v>0.305499325236167</v>
+        <v>0.6924342105263157</v>
       </c>
       <c r="S4" t="n">
-        <v>0.692434210526316</v>
+        <v>0.4764880952380952</v>
       </c>
       <c r="T4" t="n">
-        <v>0.476488095238095</v>
+        <v>0.4605042016806722</v>
       </c>
       <c r="U4" t="n">
-        <v>0.460504201680672</v>
+        <v>0.770023123817532</v>
       </c>
       <c r="V4" t="n">
-        <v>0.770023123817532</v>
+        <v>0.513157894736842</v>
       </c>
       <c r="W4" t="n">
-        <v>0.513157894736842</v>
+        <v>0.3839376915219611</v>
       </c>
       <c r="X4" t="n">
-        <v>0.383937691521961</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.470588235294118</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>0.406409601634321</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>0.544681655016059</v>
+        <v>0.4064096016343207</v>
       </c>
     </row>
     <row r="5">
@@ -832,82 +804,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.42559205500382</v>
+        <v>0.4255920550038197</v>
       </c>
       <c r="C5" t="n">
-        <v>0.405675675675676</v>
+        <v>0.4056756756756757</v>
       </c>
       <c r="D5" t="n">
         <v>0.1</v>
       </c>
       <c r="E5" t="n">
-        <v>0.296572280178838</v>
+        <v>0.2965722801788376</v>
       </c>
       <c r="F5" t="n">
         <v>0.7417112299465241</v>
       </c>
       <c r="G5" t="n">
-        <v>0.584296825730502</v>
+        <v>0.5842968257305023</v>
       </c>
       <c r="H5" t="n">
-        <v>0.200657894736842</v>
+        <v>0.2006578947368421</v>
       </c>
       <c r="I5" t="n">
-        <v>0.405844155844156</v>
+        <v>0.4058441558441558</v>
       </c>
       <c r="J5" t="n">
-        <v>0.403171390013495</v>
+        <v>0.4031713900134953</v>
       </c>
       <c r="K5" t="n">
-        <v>0.62260162601626</v>
+        <v>0.6226016260162601</v>
       </c>
       <c r="L5" t="n">
         <v>0.594311570782159</v>
       </c>
       <c r="M5" t="n">
-        <v>0.457728372655777</v>
+        <v>0.4577283726557773</v>
       </c>
       <c r="N5" t="n">
-        <v>0.423571923571924</v>
+        <v>0.4235719235719236</v>
       </c>
       <c r="O5" t="n">
-        <v>0.327757916241062</v>
+        <v>0.3277579162410623</v>
       </c>
       <c r="P5" t="n">
-        <v>0.294172932330827</v>
+        <v>0.2941729323308271</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.294172932330827</v>
+        <v>0.2703651685393258</v>
       </c>
       <c r="R5" t="n">
-        <v>0.270365168539326</v>
+        <v>0.4831349206349206</v>
       </c>
       <c r="S5" t="n">
-        <v>0.483134920634921</v>
+        <v>0.319294666278053</v>
       </c>
       <c r="T5" t="n">
-        <v>0.319294666278053</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="U5" t="n">
-        <v>0.222222222222222</v>
+        <v>0.595959595959596</v>
       </c>
       <c r="V5" t="n">
-        <v>0.595959595959596</v>
+        <v>0.3324404761904762</v>
       </c>
       <c r="W5" t="n">
-        <v>0.332440476190476</v>
+        <v>0.6792929292929293</v>
       </c>
       <c r="X5" t="n">
-        <v>0.6792929292929289</v>
+        <v>0.1008634222919937</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.100863422291994</v>
-      </c>
-      <c r="Z5" t="n">
         <v>0.297553882996921</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>0.386642735688645</v>
       </c>
     </row>
     <row r="6">
@@ -917,82 +883,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.198692810457516</v>
+        <v>0.1986928104575163</v>
       </c>
       <c r="C6" t="n">
-        <v>0.398442226255293</v>
+        <v>0.3984422262552934</v>
       </c>
       <c r="D6" t="n">
-        <v>0.604582720201808</v>
+        <v>0.6045827202018079</v>
       </c>
       <c r="E6" t="n">
-        <v>0.590406504065041</v>
+        <v>0.5904065040650406</v>
       </c>
       <c r="F6" t="n">
-        <v>0.466248037676609</v>
+        <v>0.4662480376766091</v>
       </c>
       <c r="G6" t="n">
-        <v>0.641414141414141</v>
+        <v>0.6414141414141414</v>
       </c>
       <c r="H6" t="n">
-        <v>0.535714285714286</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="I6" t="n">
-        <v>0.329622132253711</v>
+        <v>0.3296221322537112</v>
       </c>
       <c r="J6" t="n">
-        <v>0.497446373850868</v>
+        <v>0.4974463738508682</v>
       </c>
       <c r="K6" t="n">
-        <v>0.503893662728249</v>
+        <v>0.5038936627282492</v>
       </c>
       <c r="L6" t="n">
-        <v>0.530835035750766</v>
+        <v>0.5308350357507661</v>
       </c>
       <c r="M6" t="n">
         <v>0.454014454014454</v>
       </c>
       <c r="N6" t="n">
-        <v>0.571122994652406</v>
+        <v>0.5711229946524063</v>
       </c>
       <c r="O6" t="n">
-        <v>0.526684912760862</v>
+        <v>0.5266849127608622</v>
       </c>
       <c r="P6" t="n">
-        <v>0.445238095238095</v>
+        <v>0.4452380952380952</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.445238095238095</v>
+        <v>0.5347222222222222</v>
       </c>
       <c r="R6" t="n">
-        <v>0.534722222222222</v>
+        <v>0.7137837837837837</v>
       </c>
       <c r="S6" t="n">
-        <v>0.713783783783784</v>
+        <v>0.7694805194805194</v>
       </c>
       <c r="T6" t="n">
-        <v>0.769480519480519</v>
+        <v>0.7791852955787382</v>
       </c>
       <c r="U6" t="n">
-        <v>0.7791852955787379</v>
+        <v>0.6802844214608921</v>
       </c>
       <c r="V6" t="n">
-        <v>0.680284421460892</v>
+        <v>0.4538764208685514</v>
       </c>
       <c r="W6" t="n">
-        <v>0.453876420868551</v>
+        <v>0.21875</v>
       </c>
       <c r="X6" t="n">
-        <v>0.21875</v>
+        <v>0.5733384262796027</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.573338426279603</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>0.372368421052632</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>0.64934819573021</v>
+        <v>0.3723684210526315</v>
       </c>
     </row>
     <row r="7">
@@ -1002,82 +962,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.651763537009439</v>
+        <v>0.6517635370094387</v>
       </c>
       <c r="C7" t="n">
-        <v>0.358726858726859</v>
+        <v>0.3587268587268587</v>
       </c>
       <c r="D7" t="n">
         <v>0.468037518037518</v>
       </c>
       <c r="E7" t="n">
-        <v>0.419038668098818</v>
+        <v>0.4190386680988184</v>
       </c>
       <c r="F7" t="n">
         <v>0.485485103132162</v>
       </c>
       <c r="G7" t="n">
-        <v>0.725404007756949</v>
+        <v>0.7254040077569489</v>
       </c>
       <c r="H7" t="n">
-        <v>0.58027027027027</v>
+        <v>0.5802702702702702</v>
       </c>
       <c r="I7" t="n">
         <v>0.35591164453524</v>
       </c>
       <c r="J7" t="n">
-        <v>0.708333333333333</v>
+        <v>0.7083333333333333</v>
       </c>
       <c r="K7" t="n">
-        <v>0.485714285714286</v>
+        <v>0.4857142857142857</v>
       </c>
       <c r="L7" t="n">
-        <v>0.71296613068765</v>
+        <v>0.7129661306876497</v>
       </c>
       <c r="M7" t="n">
-        <v>0.796791443850267</v>
+        <v>0.7967914438502675</v>
       </c>
       <c r="N7" t="n">
-        <v>0.359497645211931</v>
+        <v>0.3594976452119309</v>
       </c>
       <c r="O7" t="n">
-        <v>0.273026315789474</v>
+        <v>0.2730263157894737</v>
       </c>
       <c r="P7" t="n">
-        <v>0.609953366365491</v>
+        <v>0.6099533663654911</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.609953366365491</v>
+        <v>0.18125</v>
       </c>
       <c r="R7" t="n">
-        <v>0.18125</v>
+        <v>0.2406987295825771</v>
       </c>
       <c r="S7" t="n">
-        <v>0.240698729582577</v>
+        <v>0.428306342780027</v>
       </c>
       <c r="T7" t="n">
-        <v>0.428306342780027</v>
+        <v>0.5522764227642276</v>
       </c>
       <c r="U7" t="n">
-        <v>0.5522764227642279</v>
+        <v>0.5587972420837589</v>
       </c>
       <c r="V7" t="n">
-        <v>0.558797242083759</v>
+        <v>0.7186147186147186</v>
       </c>
       <c r="W7" t="n">
-        <v>0.718614718614719</v>
+        <v>0.7086398990960689</v>
       </c>
       <c r="X7" t="n">
-        <v>0.7086398990960689</v>
+        <v>0.2745098039215686</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.274509803921569</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>0.171626984126984</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>0.662006423578311</v>
+        <v>0.1716269841269841</v>
       </c>
     </row>
     <row r="8">
@@ -1087,82 +1041,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.575528455284553</v>
+        <v>0.5755284552845529</v>
       </c>
       <c r="C8" t="n">
         <v>0.667379679144385</v>
       </c>
       <c r="D8" t="n">
-        <v>0.428765352294764</v>
+        <v>0.4287653522947641</v>
       </c>
       <c r="E8" t="n">
-        <v>0.245238095238095</v>
+        <v>0.2452380952380952</v>
       </c>
       <c r="F8" t="n">
-        <v>0.294444444444444</v>
+        <v>0.2944444444444444</v>
       </c>
       <c r="G8" t="n">
-        <v>0.58758937691522</v>
+        <v>0.5875893769152196</v>
       </c>
       <c r="H8" t="n">
-        <v>0.290154264972777</v>
+        <v>0.2901542649727767</v>
       </c>
       <c r="I8" t="n">
-        <v>0.530934343434343</v>
+        <v>0.5309343434343434</v>
       </c>
       <c r="J8" t="n">
         <v>0.11875</v>
       </c>
       <c r="K8" t="n">
-        <v>0.435587292334596</v>
+        <v>0.4355872923345963</v>
       </c>
       <c r="L8" t="n">
-        <v>0.437171052631579</v>
+        <v>0.4371710526315789</v>
       </c>
       <c r="M8" t="n">
-        <v>0.5074568288854</v>
+        <v>0.5074568288854003</v>
       </c>
       <c r="N8" t="n">
-        <v>0.458288770053476</v>
+        <v>0.4582887700534759</v>
       </c>
       <c r="O8" t="n">
-        <v>0.604166666666667</v>
+        <v>0.6041666666666667</v>
       </c>
       <c r="P8" t="n">
-        <v>0.468614718614719</v>
+        <v>0.4686147186147186</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.468614718614719</v>
+        <v>0.5553920538154299</v>
       </c>
       <c r="R8" t="n">
-        <v>0.55539205381543</v>
+        <v>0.5564300564300564</v>
       </c>
       <c r="S8" t="n">
-        <v>0.5564300564300561</v>
+        <v>0.4525025536261491</v>
       </c>
       <c r="T8" t="n">
-        <v>0.452502553626149</v>
+        <v>0.3423737916219119</v>
       </c>
       <c r="U8" t="n">
-        <v>0.342373791621912</v>
+        <v>0.7180123161135818</v>
       </c>
       <c r="V8" t="n">
-        <v>0.718012316113582</v>
+        <v>0.6082995951417004</v>
       </c>
       <c r="W8" t="n">
-        <v>0.6082995951417</v>
+        <v>0.6376623376623376</v>
       </c>
       <c r="X8" t="n">
-        <v>0.637662337662338</v>
+        <v>0.4802533532041728</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.480253353204173</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>0.394864864864865</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>0.583789911203476</v>
+        <v>0.3948648648648649</v>
       </c>
     </row>
     <row r="9">
@@ -1172,16 +1120,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.38547261009667</v>
+        <v>0.3854726100966702</v>
       </c>
       <c r="C9" t="n">
-        <v>0.419544740973312</v>
+        <v>0.4195447409733124</v>
       </c>
       <c r="D9" t="n">
-        <v>0.282750255362615</v>
+        <v>0.2827502553626149</v>
       </c>
       <c r="E9" t="n">
-        <v>0.31776450014573</v>
+        <v>0.3177645001457301</v>
       </c>
       <c r="F9" t="n">
         <v>0.5186289120715351</v>
@@ -1193,61 +1141,55 @@
         <v>0.455004455004455</v>
       </c>
       <c r="I9" t="n">
-        <v>0.264772727272727</v>
+        <v>0.2647727272727272</v>
       </c>
       <c r="J9" t="n">
-        <v>0.705381542989279</v>
+        <v>0.7053815429892789</v>
       </c>
       <c r="K9" t="n">
-        <v>0.531926406926407</v>
+        <v>0.5319264069264069</v>
       </c>
       <c r="L9" t="n">
-        <v>0.45734126984127</v>
+        <v>0.4573412698412698</v>
       </c>
       <c r="M9" t="n">
-        <v>0.33048128342246</v>
+        <v>0.3304812834224598</v>
       </c>
       <c r="N9" t="n">
-        <v>0.233333333333333</v>
+        <v>0.2333333333333333</v>
       </c>
       <c r="O9" t="n">
-        <v>0.481486486486487</v>
+        <v>0.4814864864864865</v>
       </c>
       <c r="P9" t="n">
-        <v>0.27834008097166</v>
+        <v>0.2783400809716599</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.27834008097166</v>
+        <v>0.4994949494949494</v>
       </c>
       <c r="R9" t="n">
-        <v>0.499494949494949</v>
+        <v>0.5491978609625668</v>
       </c>
       <c r="S9" t="n">
-        <v>0.549197860962567</v>
+        <v>0.5896464646464646</v>
       </c>
       <c r="T9" t="n">
-        <v>0.589646464646465</v>
+        <v>0.3744047619047619</v>
       </c>
       <c r="U9" t="n">
-        <v>0.374404761904762</v>
+        <v>0.4055921052631579</v>
       </c>
       <c r="V9" t="n">
-        <v>0.405592105263158</v>
+        <v>0.3837461695607763</v>
       </c>
       <c r="W9" t="n">
-        <v>0.383746169560776</v>
+        <v>0.4351001939237233</v>
       </c>
       <c r="X9" t="n">
-        <v>0.435100193923723</v>
+        <v>0.2358536585365853</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.235853658536585</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>0.211963097398669</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>0.345267334215001</v>
+        <v>0.2119630973986691</v>
       </c>
     </row>
     <row r="10">
@@ -1257,82 +1199,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.412202380952381</v>
+        <v>0.4122023809523809</v>
       </c>
       <c r="C10" t="n">
-        <v>0.372268907563025</v>
+        <v>0.3722689075630252</v>
       </c>
       <c r="D10" t="n">
-        <v>0.28489565514882</v>
+        <v>0.2848956551488197</v>
       </c>
       <c r="E10" t="n">
-        <v>0.368506493506494</v>
+        <v>0.3685064935064935</v>
       </c>
       <c r="F10" t="n">
-        <v>0.329593495934959</v>
+        <v>0.3295934959349593</v>
       </c>
       <c r="G10" t="n">
-        <v>0.347697368421053</v>
+        <v>0.3476973684210526</v>
       </c>
       <c r="H10" t="n">
-        <v>0.475401069518717</v>
+        <v>0.4754010695187165</v>
       </c>
       <c r="I10" t="n">
-        <v>0.347277696026908</v>
+        <v>0.3472776960269077</v>
       </c>
       <c r="J10" t="n">
-        <v>0.40966810966811</v>
+        <v>0.4096681096681096</v>
       </c>
       <c r="K10" t="n">
-        <v>0.484649122807017</v>
+        <v>0.4846491228070175</v>
       </c>
       <c r="L10" t="n">
-        <v>0.397162162162162</v>
+        <v>0.3971621621621621</v>
       </c>
       <c r="M10" t="n">
-        <v>0.458823529411765</v>
+        <v>0.4588235294117647</v>
       </c>
       <c r="N10" t="n">
-        <v>0.417039244908097</v>
+        <v>0.4170392449080974</v>
       </c>
       <c r="O10" t="n">
-        <v>0.37870538415003</v>
+        <v>0.3787053841500302</v>
       </c>
       <c r="P10" t="n">
-        <v>0.276238508682329</v>
+        <v>0.2762385086823289</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.276238508682329</v>
+        <v>0.3228829993535876</v>
       </c>
       <c r="R10" t="n">
-        <v>0.322882999353588</v>
+        <v>0.1993720565149136</v>
       </c>
       <c r="S10" t="n">
-        <v>0.199372056514914</v>
+        <v>0.075</v>
       </c>
       <c r="T10" t="n">
-        <v>0.075</v>
+        <v>0.3451617604197027</v>
       </c>
       <c r="U10" t="n">
-        <v>0.345161760419703</v>
+        <v>0.4365079365079365</v>
       </c>
       <c r="V10" t="n">
-        <v>0.436507936507937</v>
+        <v>0.4292929292929293</v>
       </c>
       <c r="W10" t="n">
-        <v>0.429292929292929</v>
+        <v>0.4746552604698672</v>
       </c>
       <c r="X10" t="n">
-        <v>0.474655260469867</v>
+        <v>0.2145542427497314</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.214554242749731</v>
-      </c>
-      <c r="Z10" t="n">
         <v>0.353034353034353</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>0.391838276969582</v>
       </c>
     </row>
     <row r="11">
@@ -1345,79 +1281,73 @@
         <v>0.365636840571262</v>
       </c>
       <c r="C11" t="n">
-        <v>0.38921568627451</v>
+        <v>0.3892156862745097</v>
       </c>
       <c r="D11" t="n">
-        <v>0.141776315789474</v>
+        <v>0.1417763157894737</v>
       </c>
       <c r="E11" t="n">
-        <v>0.362516869095816</v>
+        <v>0.3625168690958165</v>
       </c>
       <c r="F11" t="n">
-        <v>0.6278195488721801</v>
+        <v>0.6278195488721805</v>
       </c>
       <c r="G11" t="n">
-        <v>0.450396825396825</v>
+        <v>0.4503968253968253</v>
       </c>
       <c r="H11" t="n">
-        <v>0.437990580847724</v>
+        <v>0.4379905808477237</v>
       </c>
       <c r="I11" t="n">
-        <v>0.404112554112554</v>
+        <v>0.4041125541125541</v>
       </c>
       <c r="J11" t="n">
         <v>0.6908855850032321</v>
       </c>
       <c r="K11" t="n">
-        <v>0.316713483146067</v>
+        <v>0.3167134831460674</v>
       </c>
       <c r="L11" t="n">
-        <v>0.325393224440411</v>
+        <v>0.3253932244404114</v>
       </c>
       <c r="M11" t="n">
-        <v>0.554644808743169</v>
+        <v>0.5546448087431693</v>
       </c>
       <c r="N11" t="n">
         <v>0.394390243902439</v>
       </c>
       <c r="O11" t="n">
-        <v>0.314671814671815</v>
+        <v>0.3146718146718147</v>
       </c>
       <c r="P11" t="n">
-        <v>0.644570707070707</v>
+        <v>0.6445707070707071</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.644570707070707</v>
+        <v>0.2372957099080694</v>
       </c>
       <c r="R11" t="n">
-        <v>0.237295709908069</v>
+        <v>0.3187165775401069</v>
       </c>
       <c r="S11" t="n">
-        <v>0.318716577540107</v>
+        <v>0.4930628547403826</v>
       </c>
       <c r="T11" t="n">
-        <v>0.493062854740383</v>
+        <v>0.3712121212121212</v>
       </c>
       <c r="U11" t="n">
-        <v>0.371212121212121</v>
+        <v>0.6214864864864865</v>
       </c>
       <c r="V11" t="n">
-        <v>0.621486486486487</v>
+        <v>0.2</v>
       </c>
       <c r="W11" t="n">
-        <v>0.2</v>
+        <v>0.4199452617174136</v>
       </c>
       <c r="X11" t="n">
-        <v>0.419945261717414</v>
+        <v>0.4645833333333333</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.464583333333333</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>0.508021390374332</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>0.539013791800491</v>
+        <v>0.5080213903743316</v>
       </c>
     </row>
     <row r="12">
@@ -1427,80 +1357,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.515151515151515</v>
+        <v>0.5151515151515151</v>
       </c>
       <c r="C12" t="n">
-        <v>0.627173373075012</v>
+        <v>0.6271733730750124</v>
       </c>
       <c r="D12" t="n">
-        <v>0.358134920634921</v>
+        <v>0.3581349206349206</v>
       </c>
       <c r="E12" t="n">
-        <v>0.390832482124617</v>
+        <v>0.3908324821246169</v>
       </c>
       <c r="F12" t="n">
-        <v>0.591666666666667</v>
+        <v>0.5916666666666667</v>
       </c>
       <c r="G12" t="n">
-        <v>0.653648648648649</v>
+        <v>0.6536486486486486</v>
       </c>
       <c r="H12" t="n">
-        <v>0.428877005347594</v>
+        <v>0.4288770053475936</v>
       </c>
       <c r="I12" t="n">
-        <v>0.449967679379444</v>
+        <v>0.4499676793794441</v>
       </c>
       <c r="J12" t="n">
         <v>0.592888151174668</v>
       </c>
       <c r="K12" t="n">
-        <v>0.589646464646465</v>
+        <v>0.5896464646464646</v>
       </c>
       <c r="L12" t="n">
         <v>0.481041481041481</v>
       </c>
       <c r="M12" t="n">
-        <v>0.627723577235772</v>
+        <v>0.6277235772357723</v>
       </c>
       <c r="N12" t="n">
-        <v>0.631444683136412</v>
-      </c>
-      <c r="O12" t="inlineStr"/>
+        <v>0.6314446831364124</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0.8251336898395722</v>
+      </c>
       <c r="P12" t="n">
         <v>0.375</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.825133689839572</v>
+        <v>0.2907971262401642</v>
       </c>
       <c r="R12" t="n">
-        <v>0.290797126240164</v>
+        <v>0.3542483660130719</v>
       </c>
       <c r="S12" t="n">
-        <v>0.354248366013072</v>
+        <v>0.6321067821067821</v>
       </c>
       <c r="T12" t="n">
-        <v>0.632106782106782</v>
+        <v>0.5180499325236168</v>
       </c>
       <c r="U12" t="n">
-        <v>0.518049932523617</v>
+        <v>0.5002268602540835</v>
       </c>
       <c r="V12" t="n">
-        <v>0.500226860254083</v>
+        <v>0.5562329199075048</v>
       </c>
       <c r="W12" t="n">
-        <v>0.556232919907505</v>
+        <v>0.6993421052631579</v>
       </c>
       <c r="X12" t="n">
-        <v>0.699342105263158</v>
+        <v>0.6601573885164675</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.660157388516468</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>0.277864992150706</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>0.599376535046288</v>
+        <v>0.2778649921507065</v>
       </c>
     </row>
     <row r="13">
@@ -1510,82 +1436,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.63663967611336</v>
+        <v>0.6366396761133604</v>
       </c>
       <c r="C13" t="n">
-        <v>0.348048780487805</v>
+        <v>0.3480487804878048</v>
       </c>
       <c r="D13" t="n">
-        <v>0.327702702702703</v>
+        <v>0.3277027027027027</v>
       </c>
       <c r="E13" t="n">
-        <v>0.518939393939394</v>
+        <v>0.5189393939393939</v>
       </c>
       <c r="F13" t="n">
-        <v>0.523171087146604</v>
+        <v>0.5231710871466044</v>
       </c>
       <c r="G13" t="n">
-        <v>0.381427707199032</v>
+        <v>0.3814277071990321</v>
       </c>
       <c r="H13" t="n">
-        <v>0.227450980392157</v>
+        <v>0.2274509803921568</v>
       </c>
       <c r="I13" t="n">
         <v>0.390194075587334</v>
       </c>
       <c r="J13" t="n">
-        <v>0.739993157714677</v>
+        <v>0.7399931577146768</v>
       </c>
       <c r="K13" t="n">
-        <v>0.295454545454545</v>
+        <v>0.2954545454545454</v>
       </c>
       <c r="L13" t="n">
         <v>0.7</v>
       </c>
       <c r="M13" t="n">
-        <v>0.35687432867884</v>
+        <v>0.3568743286788399</v>
       </c>
       <c r="N13" t="n">
-        <v>0.442559523809524</v>
+        <v>0.4425595238095238</v>
       </c>
       <c r="O13" t="n">
-        <v>0.298273155416013</v>
+        <v>0.2982731554160125</v>
       </c>
       <c r="P13" t="n">
-        <v>0.648938406558756</v>
+        <v>0.6489384065587556</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.648938406558756</v>
+        <v>0.2355263157894737</v>
       </c>
       <c r="R13" t="n">
-        <v>0.235526315789474</v>
+        <v>0.4726775956284152</v>
       </c>
       <c r="S13" t="n">
-        <v>0.472677595628415</v>
+        <v>0.680672268907563</v>
       </c>
       <c r="T13" t="n">
-        <v>0.680672268907563</v>
+        <v>0.4585035750766087</v>
       </c>
       <c r="U13" t="n">
-        <v>0.458503575076609</v>
+        <v>0.4394119394119394</v>
       </c>
       <c r="V13" t="n">
-        <v>0.439411939411939</v>
+        <v>0.5746753246753247</v>
       </c>
       <c r="W13" t="n">
-        <v>0.574675324675325</v>
+        <v>0.5248015873015872</v>
       </c>
       <c r="X13" t="n">
-        <v>0.524801587301587</v>
+        <v>0.5232683982683982</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.523268398268398</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>0.264553093964859</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>0.475250330625354</v>
+        <v>0.2645530939648586</v>
       </c>
     </row>
     <row r="14">
@@ -1595,82 +1515,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.514555669050051</v>
+        <v>0.5145556690500511</v>
       </c>
       <c r="C14" t="n">
-        <v>0.404403866809882</v>
+        <v>0.4044038668098818</v>
       </c>
       <c r="D14" t="n">
-        <v>0.191470054446461</v>
+        <v>0.1914700544464609</v>
       </c>
       <c r="E14" t="n">
-        <v>0.247727272727273</v>
+        <v>0.2477272727272727</v>
       </c>
       <c r="F14" t="n">
-        <v>0.54004329004329</v>
+        <v>0.5400432900432901</v>
       </c>
       <c r="G14" t="n">
-        <v>0.512474012474012</v>
+        <v>0.5124740124740125</v>
       </c>
       <c r="H14" t="n">
-        <v>0.577247888723299</v>
+        <v>0.5772478887232986</v>
       </c>
       <c r="I14" t="n">
-        <v>0.404379062606911</v>
+        <v>0.4043790626069107</v>
       </c>
       <c r="J14" t="n">
-        <v>0.577960526315789</v>
+        <v>0.5779605263157894</v>
       </c>
       <c r="K14" t="n">
-        <v>0.380807231448392</v>
+        <v>0.3808072314483918</v>
       </c>
       <c r="L14" t="n">
-        <v>0.317503924646782</v>
+        <v>0.3175039246467818</v>
       </c>
       <c r="M14" t="n">
-        <v>0.133333333333333</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="N14" t="n">
-        <v>0.408991547653745</v>
+        <v>0.4089915476537452</v>
       </c>
       <c r="O14" t="n">
-        <v>0.504354469060351</v>
+        <v>0.5043544690603514</v>
       </c>
       <c r="P14" t="n">
-        <v>0.546825396825397</v>
+        <v>0.5468253968253969</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.546825396825397</v>
+        <v>0.2678571428571428</v>
       </c>
       <c r="R14" t="n">
-        <v>0.267857142857143</v>
+        <v>0.4789430894308943</v>
       </c>
       <c r="S14" t="n">
-        <v>0.478943089430894</v>
+        <v>0.6725612870275792</v>
       </c>
       <c r="T14" t="n">
-        <v>0.672561287027579</v>
+        <v>0.5934343434343434</v>
       </c>
       <c r="U14" t="n">
-        <v>0.593434343434343</v>
+        <v>0.6721925133689839</v>
       </c>
       <c r="V14" t="n">
-        <v>0.672192513368984</v>
+        <v>0.76890756302521</v>
       </c>
       <c r="W14" t="n">
-        <v>0.76890756302521</v>
+        <v>0.6410810810810811</v>
       </c>
       <c r="X14" t="n">
-        <v>0.641081081081081</v>
+        <v>0.4800944669365722</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.480094466936572</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>0.448692810457516</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>0.537407897222747</v>
+        <v>0.4486928104575163</v>
       </c>
     </row>
     <row r="15">
@@ -1680,82 +1594,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.661616161616162</v>
+        <v>0.6616161616161617</v>
       </c>
       <c r="C15" t="n">
-        <v>0.339880952380952</v>
+        <v>0.3398809523809524</v>
       </c>
       <c r="D15" t="n">
         <v>0.342045342045342</v>
       </c>
       <c r="E15" t="n">
-        <v>0.536262350220727</v>
+        <v>0.5362623502207273</v>
       </c>
       <c r="F15" t="n">
-        <v>0.635627530364372</v>
+        <v>0.6356275303643725</v>
       </c>
       <c r="G15" t="n">
-        <v>0.6347593582887699</v>
+        <v>0.6347593582887701</v>
       </c>
       <c r="H15" t="n">
-        <v>0.600487804878049</v>
+        <v>0.6004878048780489</v>
       </c>
       <c r="I15" t="n">
-        <v>0.326644736842105</v>
+        <v>0.3266447368421052</v>
       </c>
       <c r="J15" t="n">
-        <v>0.509920634920635</v>
+        <v>0.5099206349206349</v>
       </c>
       <c r="K15" t="n">
-        <v>0.662626262626263</v>
+        <v>0.6626262626262627</v>
       </c>
       <c r="L15" t="n">
         <v>0.393353705118411</v>
       </c>
       <c r="M15" t="n">
-        <v>0.632687263188575</v>
+        <v>0.6326872631885747</v>
       </c>
       <c r="N15" t="n">
-        <v>0.573593073593074</v>
+        <v>0.5735930735930737</v>
       </c>
       <c r="O15" t="n">
-        <v>0.204575163398693</v>
+        <v>0.2045751633986928</v>
       </c>
       <c r="P15" t="n">
-        <v>0.77207498383969</v>
+        <v>0.7720749838396896</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.77207498383969</v>
+        <v>0.3956756756756757</v>
       </c>
       <c r="R15" t="n">
-        <v>0.395675675675676</v>
+        <v>0.6220461868958109</v>
       </c>
       <c r="S15" t="n">
-        <v>0.622046186895811</v>
+        <v>0.6323126924392747</v>
       </c>
       <c r="T15" t="n">
-        <v>0.632312692439275</v>
+        <v>0.2931818181818182</v>
       </c>
       <c r="U15" t="n">
-        <v>0.293181818181818</v>
+        <v>0.5015698587127159</v>
       </c>
       <c r="V15" t="n">
-        <v>0.501569858712716</v>
+        <v>0.5707992849846782</v>
       </c>
       <c r="W15" t="n">
-        <v>0.570799284984678</v>
+        <v>0.5702510586811858</v>
       </c>
       <c r="X15" t="n">
-        <v>0.570251058681186</v>
+        <v>0.3679775280898876</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.367977528089888</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>0.64170392449081</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>0.55101076894011</v>
+        <v>0.6417039244908098</v>
       </c>
     </row>
     <row r="16">
@@ -1768,79 +1676,73 @@
         <v>0.5</v>
       </c>
       <c r="C16" t="n">
-        <v>0.488851646750219</v>
+        <v>0.4888516467502186</v>
       </c>
       <c r="D16" t="n">
-        <v>0.555614973262032</v>
+        <v>0.5556149732620321</v>
       </c>
       <c r="E16" t="n">
-        <v>0.333766233766234</v>
+        <v>0.3337662337662337</v>
       </c>
       <c r="F16" t="n">
-        <v>0.264874872318693</v>
+        <v>0.2648748723186925</v>
       </c>
       <c r="G16" t="n">
-        <v>0.520015698587127</v>
+        <v>0.5200156985871272</v>
       </c>
       <c r="H16" t="n">
-        <v>0.416756176154672</v>
+        <v>0.4167561761546724</v>
       </c>
       <c r="I16" t="n">
-        <v>0.234126984126984</v>
+        <v>0.2341269841269841</v>
       </c>
       <c r="J16" t="n">
-        <v>0.54554054054054</v>
+        <v>0.5455405405405405</v>
       </c>
       <c r="K16" t="n">
-        <v>0.604977375565611</v>
+        <v>0.6049773755656109</v>
       </c>
       <c r="L16" t="n">
-        <v>0.5545751633986929</v>
+        <v>0.5545751633986928</v>
       </c>
       <c r="M16" t="n">
-        <v>0.535714285714286</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="N16" t="n">
-        <v>0.720479082321188</v>
+        <v>0.7204790823211875</v>
       </c>
       <c r="O16" t="n">
-        <v>0.747019374068554</v>
+        <v>0.7470193740685545</v>
       </c>
       <c r="P16" t="n">
-        <v>0.361657303370786</v>
+        <v>0.3616573033707865</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.361657303370786</v>
+        <v>0.1224289171203871</v>
       </c>
       <c r="R16" t="n">
-        <v>0.122428917120387</v>
+        <v>0.4238095238095238</v>
       </c>
       <c r="S16" t="n">
-        <v>0.423809523809524</v>
+        <v>0.4921052631578947</v>
       </c>
       <c r="T16" t="n">
-        <v>0.492105263157895</v>
+        <v>0.7148412865251209</v>
       </c>
       <c r="U16" t="n">
-        <v>0.714841286525121</v>
+        <v>0.421161191749427</v>
       </c>
       <c r="V16" t="n">
-        <v>0.421161191749427</v>
+        <v>0.5209544988026</v>
       </c>
       <c r="W16" t="n">
-        <v>0.5209544988026</v>
+        <v>0.3366498366498366</v>
       </c>
       <c r="X16" t="n">
-        <v>0.336649836649837</v>
+        <v>0.3598484848484848</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.359848484848485</v>
-      </c>
-      <c r="Z16" t="n">
         <v>0.351869918699187</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>0.648875873795579</v>
       </c>
     </row>
     <row r="17">
@@ -1850,82 +1752,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.629072945133488</v>
+        <v>0.6290729451334875</v>
       </c>
       <c r="C17" t="n">
-        <v>0.305735930735931</v>
+        <v>0.3057359307359307</v>
       </c>
       <c r="D17" t="n">
         <v>0.140894819466248</v>
       </c>
       <c r="E17" t="n">
-        <v>0.376923076923077</v>
+        <v>0.3769230769230769</v>
       </c>
       <c r="F17" t="n">
         <v>0.625</v>
       </c>
       <c r="G17" t="n">
-        <v>0.449350649350649</v>
+        <v>0.4493506493506493</v>
       </c>
       <c r="H17" t="n">
-        <v>0.426488095238095</v>
+        <v>0.4264880952380952</v>
       </c>
       <c r="I17" t="n">
-        <v>0.400675675675676</v>
+        <v>0.4006756756756757</v>
       </c>
       <c r="J17" t="n">
-        <v>0.303236539624924</v>
+        <v>0.3032365396249243</v>
       </c>
       <c r="K17" t="n">
-        <v>0.643513789581205</v>
+        <v>0.6435137895812053</v>
       </c>
       <c r="L17" t="n">
-        <v>0.81892697466468</v>
+        <v>0.8189269746646797</v>
       </c>
       <c r="M17" t="n">
         <v>0.622638326585695</v>
       </c>
       <c r="N17" t="n">
-        <v>0.243360572012257</v>
+        <v>0.2433605720122574</v>
       </c>
       <c r="O17" t="n">
-        <v>0.479512195121951</v>
+        <v>0.4795121951219512</v>
       </c>
       <c r="P17" t="n">
-        <v>0.665241190557646</v>
+        <v>0.6652411905576463</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.665241190557646</v>
+        <v>0.1881001881001881</v>
       </c>
       <c r="R17" t="n">
-        <v>0.188100188100188</v>
+        <v>0.6912707665403672</v>
       </c>
       <c r="S17" t="n">
-        <v>0.691270766540367</v>
+        <v>0.3204365079365079</v>
       </c>
       <c r="T17" t="n">
-        <v>0.320436507936508</v>
+        <v>0.6691197691197691</v>
       </c>
       <c r="U17" t="n">
-        <v>0.669119769119769</v>
+        <v>0.2509803921568627</v>
       </c>
       <c r="V17" t="n">
-        <v>0.250980392156863</v>
+        <v>0.4388157894736842</v>
       </c>
       <c r="W17" t="n">
-        <v>0.438815789473684</v>
+        <v>0.7529411764705882</v>
       </c>
       <c r="X17" t="n">
-        <v>0.752941176470588</v>
+        <v>0.1801136363636363</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.180113636363636</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>0.409505907626208</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>0.636028717173626</v>
+        <v>0.4095059076262083</v>
       </c>
     </row>
     <row r="18">
@@ -1941,76 +1837,70 @@
         <v>0.474527665317139</v>
       </c>
       <c r="D18" t="n">
-        <v>0.12375859434683</v>
+        <v>0.1237585943468296</v>
       </c>
       <c r="E18" t="n">
-        <v>0.294433094994893</v>
+        <v>0.2944330949948928</v>
       </c>
       <c r="F18" t="n">
-        <v>0.351136363636364</v>
+        <v>0.3511363636363636</v>
       </c>
       <c r="G18" t="n">
-        <v>0.186274509803921</v>
+        <v>0.1862745098039215</v>
       </c>
       <c r="H18" t="n">
-        <v>0.297362285048091</v>
+        <v>0.2973622850480909</v>
       </c>
       <c r="I18" t="n">
-        <v>0.307244404113733</v>
+        <v>0.3072444041137326</v>
       </c>
       <c r="J18" t="n">
-        <v>0.486981486981487</v>
+        <v>0.4869814869814869</v>
       </c>
       <c r="K18" t="n">
-        <v>0.462624016421485</v>
+        <v>0.4626240164214847</v>
       </c>
       <c r="L18" t="n">
-        <v>0.361382113821138</v>
+        <v>0.3613821138211382</v>
       </c>
       <c r="M18" t="n">
-        <v>0.192479570990807</v>
+        <v>0.1924795709908069</v>
       </c>
       <c r="N18" t="n">
-        <v>0.577651515151515</v>
+        <v>0.5776515151515151</v>
       </c>
       <c r="O18" t="n">
-        <v>0.327067669172932</v>
+        <v>0.3270676691729323</v>
       </c>
       <c r="P18" t="n">
-        <v>0.280921052631579</v>
+        <v>0.2809210526315789</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.280921052631579</v>
+        <v>0.2256684491978609</v>
       </c>
       <c r="R18" t="n">
-        <v>0.225668449197861</v>
+        <v>0.2435064935064935</v>
       </c>
       <c r="S18" t="n">
-        <v>0.243506493506494</v>
+        <v>0.4097297297297297</v>
       </c>
       <c r="T18" t="n">
-        <v>0.40972972972973</v>
+        <v>0.5499676793794441</v>
       </c>
       <c r="U18" t="n">
-        <v>0.549967679379444</v>
+        <v>0.5905365126676603</v>
       </c>
       <c r="V18" t="n">
-        <v>0.5905365126676601</v>
+        <v>0.6259920634920635</v>
       </c>
       <c r="W18" t="n">
-        <v>0.625992063492063</v>
+        <v>0.3916797488226059</v>
       </c>
       <c r="X18" t="n">
-        <v>0.391679748822606</v>
+        <v>0.6228715577044356</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.622871557704436</v>
-      </c>
-      <c r="Z18" t="n">
         <v>0.238095238095238</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>0.521632344606084</v>
       </c>
     </row>
     <row r="19">
@@ -2020,82 +1910,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.613186813186813</v>
+        <v>0.6131868131868132</v>
       </c>
       <c r="C19" t="n">
-        <v>0.452502553626149</v>
+        <v>0.4525025536261491</v>
       </c>
       <c r="D19" t="n">
-        <v>0.264705882352941</v>
+        <v>0.2647058823529412</v>
       </c>
       <c r="E19" t="n">
-        <v>0.257440985289086</v>
+        <v>0.2574409852890865</v>
       </c>
       <c r="F19" t="n">
-        <v>0.775383645154509</v>
+        <v>0.7753836451545091</v>
       </c>
       <c r="G19" t="n">
         <v>0.5306756085444611</v>
       </c>
       <c r="H19" t="n">
-        <v>0.505952380952381</v>
+        <v>0.5059523809523809</v>
       </c>
       <c r="I19" t="n">
-        <v>0.341599841599842</v>
+        <v>0.3415998415998416</v>
       </c>
       <c r="J19" t="n">
-        <v>0.725133689839572</v>
+        <v>0.7251336898395722</v>
       </c>
       <c r="K19" t="n">
-        <v>0.345394736842105</v>
+        <v>0.3453947368421052</v>
       </c>
       <c r="L19" t="n">
-        <v>0.45327604726101</v>
+        <v>0.4532760472610097</v>
       </c>
       <c r="M19" t="n">
-        <v>0.684343434343434</v>
+        <v>0.6843434343434344</v>
       </c>
       <c r="N19" t="n">
-        <v>0.430113636363636</v>
+        <v>0.4301136363636363</v>
       </c>
       <c r="O19" t="n">
         <v>0.494345238095238</v>
       </c>
       <c r="P19" t="n">
-        <v>0.401785714285714</v>
+        <v>0.4017857142857143</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.401785714285714</v>
+        <v>0.2370486656200942</v>
       </c>
       <c r="R19" t="n">
-        <v>0.237048665620094</v>
+        <v>0.6217948717948718</v>
       </c>
       <c r="S19" t="n">
-        <v>0.621794871794872</v>
+        <v>0.5145190562613431</v>
       </c>
       <c r="T19" t="n">
-        <v>0.514519056261343</v>
+        <v>0.5313457609805925</v>
       </c>
       <c r="U19" t="n">
-        <v>0.5313457609805921</v>
+        <v>0.5117073170731707</v>
       </c>
       <c r="V19" t="n">
-        <v>0.511707317073171</v>
+        <v>0.7068918918918918</v>
       </c>
       <c r="W19" t="n">
-        <v>0.7068918918918921</v>
+        <v>0.4372039724980902</v>
       </c>
       <c r="X19" t="n">
-        <v>0.43720397249809</v>
+        <v>0.5663059163059163</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.566305916305916</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>0.421232876712329</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>0.528622709238617</v>
+        <v>0.4212328767123288</v>
       </c>
     </row>
     <row r="20">
@@ -2105,82 +1989,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.547178243105209</v>
+        <v>0.5471782431052095</v>
       </c>
       <c r="C20" t="n">
-        <v>0.355429292929293</v>
+        <v>0.3554292929292929</v>
       </c>
       <c r="D20" t="n">
-        <v>0.205663189269747</v>
+        <v>0.2056631892697466</v>
       </c>
       <c r="E20" t="n">
         <v>0.0838815789473684</v>
       </c>
       <c r="F20" t="n">
-        <v>0.388383838383838</v>
+        <v>0.3883838383838384</v>
       </c>
       <c r="G20" t="n">
-        <v>0.220813008130081</v>
+        <v>0.2208130081300813</v>
       </c>
       <c r="H20" t="n">
-        <v>0.335188933873144</v>
+        <v>0.3351889338731444</v>
       </c>
       <c r="I20" t="n">
-        <v>0.540106951871658</v>
+        <v>0.5401069518716577</v>
       </c>
       <c r="J20" t="n">
         <v>0.314756671899529</v>
       </c>
       <c r="K20" t="n">
-        <v>0.555555555555556</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L20" t="n">
-        <v>0.435714285714286</v>
+        <v>0.4357142857142857</v>
       </c>
       <c r="M20" t="n">
-        <v>0.345454545454545</v>
+        <v>0.3454545454545454</v>
       </c>
       <c r="N20" t="n">
-        <v>0.610468782846332</v>
+        <v>0.6104687828463318</v>
       </c>
       <c r="O20" t="n">
-        <v>0.603832701836199</v>
+        <v>0.6038327018361993</v>
       </c>
       <c r="P20" t="n">
-        <v>0.426756756756757</v>
+        <v>0.4267567567567567</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.426756756756757</v>
+        <v>0.1692131398013751</v>
       </c>
       <c r="R20" t="n">
-        <v>0.169213139801375</v>
+        <v>0.2536389172625127</v>
       </c>
       <c r="S20" t="n">
-        <v>0.253638917262513</v>
+        <v>0.4524799524799525</v>
       </c>
       <c r="T20" t="n">
-        <v>0.452479952479952</v>
+        <v>0.5343824837495723</v>
       </c>
       <c r="U20" t="n">
-        <v>0.534382483749572</v>
+        <v>0.3145810955961332</v>
       </c>
       <c r="V20" t="n">
-        <v>0.314581095596133</v>
+        <v>0.3936025408348457</v>
       </c>
       <c r="W20" t="n">
-        <v>0.393602540834846</v>
+        <v>0.2833333333333333</v>
       </c>
       <c r="X20" t="n">
-        <v>0.283333333333333</v>
+        <v>0.7301228183581125</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.730122818358113</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>0.420454545454545</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>0.5372189684488951</v>
+        <v>0.4204545454545454</v>
       </c>
     </row>
     <row r="21">
@@ -2190,82 +2068,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.825265138556278</v>
+        <v>0.8252651385562778</v>
       </c>
       <c r="C21" t="n">
-        <v>0.435795454545454</v>
+        <v>0.4357954545454545</v>
       </c>
       <c r="D21" t="n">
-        <v>0.5606504065040649</v>
+        <v>0.5606504065040651</v>
       </c>
       <c r="E21" t="n">
-        <v>0.53968253968254</v>
+        <v>0.5396825396825398</v>
       </c>
       <c r="F21" t="n">
-        <v>0.761085972850679</v>
+        <v>0.7610859728506787</v>
       </c>
       <c r="G21" t="n">
-        <v>0.689178302900107</v>
+        <v>0.6891783029001074</v>
       </c>
       <c r="H21" t="n">
         <v>0.463546986721144</v>
       </c>
       <c r="I21" t="n">
-        <v>0.440737833594976</v>
+        <v>0.4407378335949764</v>
       </c>
       <c r="J21" t="n">
-        <v>0.405118411000764</v>
+        <v>0.4051184110007639</v>
       </c>
       <c r="K21" t="n">
-        <v>0.772837837837838</v>
+        <v>0.7728378378378378</v>
       </c>
       <c r="L21" t="n">
-        <v>0.672252987467211</v>
+        <v>0.6722529874672107</v>
       </c>
       <c r="M21" t="n">
-        <v>0.777485810384696</v>
+        <v>0.7774858103846962</v>
       </c>
       <c r="N21" t="n">
-        <v>0.606132756132756</v>
+        <v>0.6061327561327561</v>
       </c>
       <c r="O21" t="n">
         <v>0.6758658008658009</v>
       </c>
       <c r="P21" t="n">
-        <v>0.366303690260133</v>
+        <v>0.3663036902601331</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.366303690260133</v>
+        <v>0.4441176470588235</v>
       </c>
       <c r="R21" t="n">
-        <v>0.444117647058824</v>
+        <v>0.7373737373737375</v>
       </c>
       <c r="S21" t="n">
-        <v>0.737373737373737</v>
+        <v>0.9545454545454546</v>
       </c>
       <c r="T21" t="n">
-        <v>0.954545454545455</v>
+        <v>0.6414473684210527</v>
       </c>
       <c r="U21" t="n">
-        <v>0.641447368421053</v>
+        <v>0.6788690476190475</v>
       </c>
       <c r="V21" t="n">
-        <v>0.678869047619048</v>
+        <v>0.7780417780417781</v>
       </c>
       <c r="W21" t="n">
-        <v>0.778041778041778</v>
+        <v>0.501987083954297</v>
       </c>
       <c r="X21" t="n">
-        <v>0.501987083954297</v>
+        <v>0.7234422880490297</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.72344228804903</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>0.635121457489878</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>0.582656338560363</v>
+        <v>0.6351214574898785</v>
       </c>
     </row>
     <row r="22">
@@ -2275,82 +2147,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.276315789473684</v>
+        <v>0.2763157894736842</v>
       </c>
       <c r="C22" t="n">
-        <v>0.612886272861047</v>
+        <v>0.6128862728610469</v>
       </c>
       <c r="D22" t="n">
-        <v>0.358351235230934</v>
+        <v>0.3583512352309345</v>
       </c>
       <c r="E22" t="n">
-        <v>0.327432432432432</v>
+        <v>0.3274324324324324</v>
       </c>
       <c r="F22" t="n">
-        <v>0.507277834525026</v>
+        <v>0.5072778345250255</v>
       </c>
       <c r="G22" t="n">
-        <v>0.289880952380952</v>
+        <v>0.2898809523809523</v>
       </c>
       <c r="H22" t="n">
-        <v>0.353535353535353</v>
+        <v>0.3535353535353535</v>
       </c>
       <c r="I22" t="n">
-        <v>0.299465240641711</v>
+        <v>0.2994652406417112</v>
       </c>
       <c r="J22" t="n">
-        <v>0.333986928104575</v>
+        <v>0.3339869281045751</v>
       </c>
       <c r="K22" t="n">
-        <v>0.207955232909861</v>
+        <v>0.2079552329098608</v>
       </c>
       <c r="L22" t="n">
         <v>0.382034632034632</v>
       </c>
       <c r="M22" t="n">
-        <v>0.410678210678211</v>
+        <v>0.4106782106782106</v>
       </c>
       <c r="N22" t="n">
-        <v>0.592307692307692</v>
+        <v>0.5923076923076923</v>
       </c>
       <c r="O22" t="n">
-        <v>0.584345479082321</v>
+        <v>0.5843454790823213</v>
       </c>
       <c r="P22" t="n">
         <v>0.161073161073161</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.161073161073161</v>
+        <v>0.3293591654247392</v>
       </c>
       <c r="R22" t="n">
-        <v>0.329359165424739</v>
+        <v>0.2482954545454545</v>
       </c>
       <c r="S22" t="n">
-        <v>0.248295454545455</v>
+        <v>0.3281004709576138</v>
       </c>
       <c r="T22" t="n">
-        <v>0.328100470957614</v>
+        <v>0.431547619047619</v>
       </c>
       <c r="U22" t="n">
-        <v>0.431547619047619</v>
+        <v>0.4030166132322937</v>
       </c>
       <c r="V22" t="n">
-        <v>0.403016613232294</v>
+        <v>0.6796791443850267</v>
       </c>
       <c r="W22" t="n">
-        <v>0.679679144385027</v>
+        <v>0.4698373983739837</v>
       </c>
       <c r="X22" t="n">
-        <v>0.469837398373984</v>
+        <v>0.4630516592541909</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.463051659254191</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>0.21405771195097</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>0.317872662006424</v>
+        <v>0.2140577119509704</v>
       </c>
     </row>
     <row r="23">
@@ -2360,82 +2226,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.483134920634921</v>
+        <v>0.4831349206349206</v>
       </c>
       <c r="C23" t="n">
-        <v>0.553318903318903</v>
+        <v>0.5533189033189033</v>
       </c>
       <c r="D23" t="n">
-        <v>0.226488095238095</v>
+        <v>0.2264880952380952</v>
       </c>
       <c r="E23" t="n">
-        <v>0.240018148820327</v>
+        <v>0.2400181488203266</v>
       </c>
       <c r="F23" t="n">
-        <v>0.400102634279849</v>
+        <v>0.4001026342798495</v>
       </c>
       <c r="G23" t="n">
-        <v>0.314922763042845</v>
+        <v>0.3149227630428446</v>
       </c>
       <c r="H23" t="n">
         <v>0.25</v>
       </c>
       <c r="I23" t="n">
-        <v>0.361111111111111</v>
+        <v>0.3611111111111111</v>
       </c>
       <c r="J23" t="n">
-        <v>0.508445106805762</v>
+        <v>0.5084451068057625</v>
       </c>
       <c r="K23" t="n">
-        <v>0.410602910602911</v>
+        <v>0.4106029106029106</v>
       </c>
       <c r="L23" t="n">
-        <v>0.440620782726046</v>
+        <v>0.4406207827260459</v>
       </c>
       <c r="M23" t="n">
-        <v>0.553522947640595</v>
+        <v>0.5535229476405947</v>
       </c>
       <c r="N23" t="n">
-        <v>0.362551072522983</v>
+        <v>0.3625510725229826</v>
       </c>
       <c r="O23" t="n">
-        <v>0.214887640449438</v>
+        <v>0.2148876404494382</v>
       </c>
       <c r="P23" t="n">
-        <v>0.408021390374331</v>
+        <v>0.4080213903743315</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.408021390374331</v>
+        <v>0.4067479674796748</v>
       </c>
       <c r="R23" t="n">
-        <v>0.406747967479675</v>
+        <v>0.6361151986546143</v>
       </c>
       <c r="S23" t="n">
-        <v>0.636115198654614</v>
+        <v>0.4171122994652406</v>
       </c>
       <c r="T23" t="n">
-        <v>0.417112299465241</v>
+        <v>0.517027027027027</v>
       </c>
       <c r="U23" t="n">
-        <v>0.517027027027027</v>
+        <v>0.5568181818181818</v>
       </c>
       <c r="V23" t="n">
-        <v>0.556818181818182</v>
+        <v>0.3229984301412872</v>
       </c>
       <c r="W23" t="n">
-        <v>0.322998430141287</v>
+        <v>0.4812030075187969</v>
       </c>
       <c r="X23" t="n">
-        <v>0.481203007518797</v>
+        <v>0.3141447368421052</v>
       </c>
       <c r="Y23" t="n">
-        <v>0.314144736842105</v>
-      </c>
-      <c r="Z23" t="n">
-        <v>0.391414141414141</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>0.435008501794823</v>
+        <v>0.3914141414141414</v>
       </c>
     </row>
     <row r="24">
@@ -2445,82 +2305,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.50527027027027</v>
+        <v>0.5052702702702703</v>
       </c>
       <c r="C24" t="n">
-        <v>0.494246929541047</v>
+        <v>0.4942469295410472</v>
       </c>
       <c r="D24" t="n">
-        <v>0.102593995919557</v>
+        <v>0.1025939959195569</v>
       </c>
       <c r="E24" t="n">
         <v>0.117018117018117</v>
       </c>
       <c r="F24" t="n">
-        <v>0.377960526315789</v>
+        <v>0.3779605263157894</v>
       </c>
       <c r="G24" t="n">
-        <v>0.402597402597403</v>
+        <v>0.4025974025974025</v>
       </c>
       <c r="H24" t="n">
-        <v>0.536682783266765</v>
+        <v>0.5366827832667648</v>
       </c>
       <c r="I24" t="n">
-        <v>0.206284153005464</v>
+        <v>0.2062841530054645</v>
       </c>
       <c r="J24" t="n">
         <v>0.226910569105691</v>
       </c>
       <c r="K24" t="n">
-        <v>0.597326203208556</v>
+        <v>0.5973262032085562</v>
       </c>
       <c r="L24" t="n">
-        <v>0.191713483146067</v>
+        <v>0.1917134831460674</v>
       </c>
       <c r="M24" t="n">
-        <v>0.389747191011236</v>
+        <v>0.3897471910112359</v>
       </c>
       <c r="N24" t="n">
         <v>0.486315429353404</v>
       </c>
       <c r="O24" t="n">
-        <v>0.391414141414141</v>
+        <v>0.3914141414141414</v>
       </c>
       <c r="P24" t="n">
-        <v>0.176609105180534</v>
+        <v>0.1766091051805337</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.176609105180534</v>
+        <v>0.0773361976369495</v>
       </c>
       <c r="R24" t="n">
-        <v>0.0773361976369495</v>
+        <v>0.5264790764790764</v>
       </c>
       <c r="S24" t="n">
-        <v>0.526479076479076</v>
+        <v>0.3781045751633987</v>
       </c>
       <c r="T24" t="n">
-        <v>0.378104575163399</v>
+        <v>0.4412431941923775</v>
       </c>
       <c r="U24" t="n">
-        <v>0.441243194192378</v>
+        <v>0.4137989203778678</v>
       </c>
       <c r="V24" t="n">
-        <v>0.413798920377868</v>
+        <v>0.253781512605042</v>
       </c>
       <c r="W24" t="n">
-        <v>0.253781512605042</v>
+        <v>0.2773809523809524</v>
       </c>
       <c r="X24" t="n">
-        <v>0.277380952380952</v>
+        <v>0.2787698412698413</v>
       </c>
       <c r="Y24" t="n">
-        <v>0.278769841269841</v>
-      </c>
-      <c r="Z24" t="n">
-        <v>0.232386363636364</v>
-      </c>
-      <c r="AA24" t="n">
-        <v>0.34432269034574</v>
+        <v>0.2323863636363636</v>
       </c>
     </row>
     <row r="25">
@@ -2530,82 +2384,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.364791288566243</v>
+        <v>0.3647912885662432</v>
       </c>
       <c r="C25" t="n">
-        <v>0.305286006128703</v>
+        <v>0.3052860061287027</v>
       </c>
       <c r="D25" t="n">
-        <v>0.358225108225108</v>
+        <v>0.3582251082251082</v>
       </c>
       <c r="E25" t="n">
         <v>0.446524064171123</v>
       </c>
       <c r="F25" t="n">
-        <v>0.438492063492063</v>
+        <v>0.4384920634920635</v>
       </c>
       <c r="G25" t="n">
-        <v>0.406882591093117</v>
+        <v>0.4068825910931173</v>
       </c>
       <c r="H25" t="n">
-        <v>0.41991341991342</v>
+        <v>0.4199134199134199</v>
       </c>
       <c r="I25" t="n">
-        <v>0.309186991869919</v>
+        <v>0.3091869918699187</v>
       </c>
       <c r="J25" t="n">
-        <v>0.352040816326531</v>
+        <v>0.3520408163265306</v>
       </c>
       <c r="K25" t="n">
-        <v>0.373626373626374</v>
+        <v>0.3736263736263736</v>
       </c>
       <c r="L25" t="n">
-        <v>0.470328282828283</v>
+        <v>0.4703282828282828</v>
       </c>
       <c r="M25" t="n">
-        <v>0.396339377352036</v>
+        <v>0.3963393773520356</v>
       </c>
       <c r="N25" t="n">
-        <v>0.173684210526316</v>
+        <v>0.1736842105263157</v>
       </c>
       <c r="O25" t="n">
-        <v>0.282386363636364</v>
+        <v>0.2823863636363636</v>
       </c>
       <c r="P25" t="n">
-        <v>0.118487394957983</v>
+        <v>0.1184873949579831</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.118487394957983</v>
+        <v>0.2988095238095238</v>
       </c>
       <c r="R25" t="n">
-        <v>0.298809523809524</v>
+        <v>0.5771170006464124</v>
       </c>
       <c r="S25" t="n">
-        <v>0.577117000646412</v>
+        <v>0.4687034277198211</v>
       </c>
       <c r="T25" t="n">
-        <v>0.468703427719821</v>
+        <v>0.39006039006039</v>
       </c>
       <c r="U25" t="n">
-        <v>0.39006039006039</v>
+        <v>0.2598314606741573</v>
       </c>
       <c r="V25" t="n">
-        <v>0.259831460674157</v>
+        <v>0.2888888888888889</v>
       </c>
       <c r="W25" t="n">
-        <v>0.288888888888889</v>
+        <v>0.4348586417953949</v>
       </c>
       <c r="X25" t="n">
-        <v>0.434858641795395</v>
+        <v>0.5082432432432433</v>
       </c>
       <c r="Y25" t="n">
-        <v>0.508243243243243</v>
-      </c>
-      <c r="Z25" t="n">
-        <v>0.37628757620349</v>
-      </c>
-      <c r="AA25" t="n">
-        <v>0.338276969582467</v>
+        <v>0.3762875762034895</v>
       </c>
     </row>
     <row r="26">
@@ -2615,82 +2463,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.418621918621919</v>
+        <v>0.4186219186219186</v>
       </c>
       <c r="C26" t="n">
-        <v>0.719722887444406</v>
+        <v>0.7197228874444064</v>
       </c>
       <c r="D26" t="n">
-        <v>0.325910931174089</v>
+        <v>0.3259109311740891</v>
       </c>
       <c r="E26" t="n">
-        <v>0.319466248037677</v>
+        <v>0.3194662480376766</v>
       </c>
       <c r="F26" t="n">
-        <v>0.7237837837837841</v>
+        <v>0.7237837837837837</v>
       </c>
       <c r="G26" t="n">
-        <v>0.283069458631256</v>
+        <v>0.2830694586312564</v>
       </c>
       <c r="H26" t="n">
-        <v>0.802262443438914</v>
+        <v>0.8022624434389141</v>
       </c>
       <c r="I26" t="n">
-        <v>0.405746509129968</v>
+        <v>0.4057465091299678</v>
       </c>
       <c r="J26" t="n">
-        <v>0.443154761904762</v>
+        <v>0.4431547619047619</v>
       </c>
       <c r="K26" t="n">
-        <v>0.55546218487395</v>
+        <v>0.5554621848739496</v>
       </c>
       <c r="L26" t="n">
-        <v>0.576136363636364</v>
+        <v>0.5761363636363637</v>
       </c>
       <c r="M26" t="n">
-        <v>0.557565789473684</v>
+        <v>0.5575657894736843</v>
       </c>
       <c r="N26" t="n">
-        <v>0.72718253968254</v>
+        <v>0.7271825396825398</v>
       </c>
       <c r="O26" t="n">
-        <v>0.803132226192979</v>
+        <v>0.8031322261929787</v>
       </c>
       <c r="P26" t="n">
-        <v>0.413725490196078</v>
+        <v>0.4137254901960784</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.413725490196078</v>
+        <v>0.1984115418245409</v>
       </c>
       <c r="R26" t="n">
-        <v>0.198411541824541</v>
+        <v>0.638215015321757</v>
       </c>
       <c r="S26" t="n">
-        <v>0.638215015321757</v>
+        <v>0.5770731707317074</v>
       </c>
       <c r="T26" t="n">
-        <v>0.5770731707317071</v>
+        <v>0.8700534759358289</v>
       </c>
       <c r="U26" t="n">
-        <v>0.870053475935829</v>
+        <v>0.7828282828282829</v>
       </c>
       <c r="V26" t="n">
-        <v>0.782828282828283</v>
+        <v>0.7842771982116244</v>
       </c>
       <c r="W26" t="n">
-        <v>0.784277198211624</v>
+        <v>0.4074675324675324</v>
       </c>
       <c r="X26" t="n">
-        <v>0.407467532467532</v>
+        <v>0.4010133091349062</v>
       </c>
       <c r="Y26" t="n">
-        <v>0.401013309134906</v>
-      </c>
-      <c r="Z26" t="n">
-        <v>0.549494949494949</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>0.5751936519931991</v>
+        <v>0.5494949494949495</v>
       </c>
     </row>
     <row r="27">
@@ -2700,82 +2542,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.585561497326203</v>
+        <v>0.5855614973262032</v>
       </c>
       <c r="C27" t="n">
-        <v>0.571381578947368</v>
+        <v>0.5713815789473684</v>
       </c>
       <c r="D27" t="n">
-        <v>0.146769662921348</v>
+        <v>0.1467696629213483</v>
       </c>
       <c r="E27" t="n">
-        <v>0.253399541634836</v>
+        <v>0.2533995416348357</v>
       </c>
       <c r="F27" t="n">
-        <v>0.54559891107078</v>
+        <v>0.5455989110707804</v>
       </c>
       <c r="G27" t="n">
         <v>0.370580808080808</v>
       </c>
       <c r="H27" t="n">
-        <v>0.435584780388151</v>
+        <v>0.4355847803881512</v>
       </c>
       <c r="I27" t="n">
-        <v>0.257738095238095</v>
+        <v>0.2577380952380952</v>
       </c>
       <c r="J27" t="n">
-        <v>0.527834450597493</v>
+        <v>0.5278344505974935</v>
       </c>
       <c r="K27" t="n">
-        <v>0.166013071895425</v>
+        <v>0.1660130718954248</v>
       </c>
       <c r="L27" t="n">
-        <v>0.731868824889636</v>
+        <v>0.7318688248896363</v>
       </c>
       <c r="M27" t="n">
-        <v>0.638888888888889</v>
+        <v>0.6388888888888888</v>
       </c>
       <c r="N27" t="n">
-        <v>0.531486486486486</v>
+        <v>0.5314864864864864</v>
       </c>
       <c r="O27" t="n">
-        <v>0.593145743145743</v>
+        <v>0.5931457431457432</v>
       </c>
       <c r="P27" t="n">
-        <v>0.426477893691008</v>
+        <v>0.4264778936910084</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.426477893691008</v>
+        <v>0.3181818181818182</v>
       </c>
       <c r="R27" t="n">
-        <v>0.318181818181818</v>
+        <v>0.4317482039001026</v>
       </c>
       <c r="S27" t="n">
-        <v>0.431748203900103</v>
+        <v>0.4246777658431794</v>
       </c>
       <c r="T27" t="n">
-        <v>0.424677765843179</v>
+        <v>0.2339089481946624</v>
       </c>
       <c r="U27" t="n">
-        <v>0.233908948194662</v>
+        <v>0.43125</v>
       </c>
       <c r="V27" t="n">
-        <v>0.43125</v>
+        <v>0.5295934959349593</v>
       </c>
       <c r="W27" t="n">
-        <v>0.529593495934959</v>
+        <v>0.3297908232118758</v>
       </c>
       <c r="X27" t="n">
-        <v>0.329790823211876</v>
+        <v>0.4044649044649044</v>
       </c>
       <c r="Y27" t="n">
-        <v>0.404464904464904</v>
-      </c>
-      <c r="Z27" t="n">
-        <v>0.5578539107950869</v>
-      </c>
-      <c r="AA27" t="n">
-        <v>0.468921216701304</v>
+        <v>0.5578539107950873</v>
       </c>
     </row>
     <row r="28">
@@ -2785,82 +2621,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.404631083202512</v>
+        <v>0.4046310832025117</v>
       </c>
       <c r="C28" t="n">
-        <v>0.583333333333333</v>
+        <v>0.5833333333333333</v>
       </c>
       <c r="D28" t="n">
-        <v>0.487373737373737</v>
+        <v>0.4873737373737373</v>
       </c>
       <c r="E28" t="n">
-        <v>0.210457516339869</v>
+        <v>0.2104575163398692</v>
       </c>
       <c r="F28" t="n">
-        <v>0.459409959409959</v>
+        <v>0.4594099594099594</v>
       </c>
       <c r="G28" t="n">
-        <v>0.472159090909091</v>
+        <v>0.4721590909090909</v>
       </c>
       <c r="H28" t="n">
-        <v>0.612555593568252</v>
+        <v>0.6125555935682518</v>
       </c>
       <c r="I28" t="n">
-        <v>0.481419411250364</v>
+        <v>0.4814194112503643</v>
       </c>
       <c r="J28" t="n">
-        <v>0.586580086580087</v>
+        <v>0.5865800865800865</v>
       </c>
       <c r="K28" t="n">
-        <v>0.760928961748634</v>
+        <v>0.7609289617486339</v>
       </c>
       <c r="L28" t="n">
-        <v>0.614646464646465</v>
+        <v>0.6146464646464647</v>
       </c>
       <c r="M28" t="n">
-        <v>0.734054054054054</v>
+        <v>0.7340540540540541</v>
       </c>
       <c r="N28" t="n">
-        <v>0.431336963097399</v>
+        <v>0.4313369630973986</v>
       </c>
       <c r="O28" t="n">
-        <v>0.703425985778927</v>
+        <v>0.7034259857789269</v>
       </c>
       <c r="P28" t="n">
-        <v>0.588861788617886</v>
+        <v>0.5888617886178862</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.588861788617886</v>
+        <v>0.5774291497975709</v>
       </c>
       <c r="R28" t="n">
-        <v>0.577429149797571</v>
+        <v>0.6368421052631579</v>
       </c>
       <c r="S28" t="n">
-        <v>0.636842105263158</v>
+        <v>0.6547619047619048</v>
       </c>
       <c r="T28" t="n">
-        <v>0.654761904761905</v>
+        <v>0.4676088617265088</v>
       </c>
       <c r="U28" t="n">
-        <v>0.467608861726509</v>
+        <v>0.7380702123186882</v>
       </c>
       <c r="V28" t="n">
-        <v>0.738070212318688</v>
+        <v>0.5366541353383458</v>
       </c>
       <c r="W28" t="n">
-        <v>0.536654135338346</v>
+        <v>0.4410750766087845</v>
       </c>
       <c r="X28" t="n">
-        <v>0.441075076608784</v>
+        <v>0.7315508021390374</v>
       </c>
       <c r="Y28" t="n">
-        <v>0.731550802139037</v>
-      </c>
-      <c r="Z28" t="n">
-        <v>0.430541368743616</v>
-      </c>
-      <c r="AA28" t="n">
-        <v>0.666540714150765</v>
+        <v>0.4305413687436159</v>
       </c>
     </row>
     <row r="29">
@@ -2870,82 +2700,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.410618792971734</v>
+        <v>0.4106187929717341</v>
       </c>
       <c r="C29" t="n">
-        <v>0.531486486486486</v>
+        <v>0.5314864864864864</v>
       </c>
       <c r="D29" t="n">
-        <v>0.384090909090909</v>
+        <v>0.3840909090909091</v>
       </c>
       <c r="E29" t="n">
-        <v>0.345131644311972</v>
+        <v>0.3451316443119722</v>
       </c>
       <c r="F29" t="n">
-        <v>0.663101604278075</v>
+        <v>0.6631016042780749</v>
       </c>
       <c r="G29" t="n">
-        <v>0.593441244481816</v>
+        <v>0.5934412444818162</v>
       </c>
       <c r="H29" t="n">
-        <v>0.30328947368421</v>
+        <v>0.3032894736842105</v>
       </c>
       <c r="I29" t="n">
-        <v>0.418290043290043</v>
+        <v>0.4182900432900432</v>
       </c>
       <c r="J29" t="n">
-        <v>0.568994601889339</v>
+        <v>0.5689946018893387</v>
       </c>
       <c r="K29" t="n">
-        <v>0.438373983739837</v>
+        <v>0.4383739837398374</v>
       </c>
       <c r="L29" t="n">
-        <v>0.630833872010343</v>
+        <v>0.6308338720103426</v>
       </c>
       <c r="M29" t="n">
-        <v>0.374621899576527</v>
+        <v>0.3746218995765275</v>
       </c>
       <c r="N29" t="n">
         <v>0.435006435006435</v>
       </c>
       <c r="O29" t="n">
-        <v>0.418220122574055</v>
+        <v>0.4182201225740551</v>
       </c>
       <c r="P29" t="n">
-        <v>0.420649838882922</v>
+        <v>0.4206498388829215</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.420649838882922</v>
+        <v>0.2260597548518896</v>
       </c>
       <c r="R29" t="n">
-        <v>0.22605975485189</v>
+        <v>0.4672619047619047</v>
       </c>
       <c r="S29" t="n">
-        <v>0.467261904761905</v>
+        <v>0.5680559603614107</v>
       </c>
       <c r="T29" t="n">
-        <v>0.568055960361411</v>
+        <v>0.2156862745098039</v>
       </c>
       <c r="U29" t="n">
-        <v>0.215686274509804</v>
+        <v>0.2698412698412698</v>
       </c>
       <c r="V29" t="n">
-        <v>0.26984126984127</v>
+        <v>0.4523809523809524</v>
       </c>
       <c r="W29" t="n">
-        <v>0.452380952380952</v>
+        <v>0.5246212121212122</v>
       </c>
       <c r="X29" t="n">
-        <v>0.524621212121212</v>
+        <v>0.2998430141287284</v>
       </c>
       <c r="Y29" t="n">
-        <v>0.299843014128728</v>
-      </c>
-      <c r="Z29" t="n">
-        <v>0.365549093397195</v>
-      </c>
-      <c r="AA29" t="n">
-        <v>0.496977139618364</v>
+        <v>0.3655490933971946</v>
       </c>
     </row>
     <row r="30">
@@ -2955,82 +2779,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.244444444444444</v>
+        <v>0.2444444444444444</v>
       </c>
       <c r="C30" t="n">
-        <v>0.203720508166969</v>
+        <v>0.2037205081669691</v>
       </c>
       <c r="D30" t="n">
-        <v>0.296300189194871</v>
+        <v>0.2963001891948707</v>
       </c>
       <c r="E30" t="n">
-        <v>0.25260162601626</v>
+        <v>0.2526016260162602</v>
       </c>
       <c r="F30" t="n">
-        <v>0.178963893249607</v>
+        <v>0.1789638932496075</v>
       </c>
       <c r="G30" t="n">
-        <v>0.387373737373737</v>
+        <v>0.3873737373737373</v>
       </c>
       <c r="H30" t="n">
         <v>0.314484126984127</v>
       </c>
       <c r="I30" t="n">
-        <v>0.227226720647773</v>
+        <v>0.2272267206477732</v>
       </c>
       <c r="J30" t="n">
-        <v>0.174859550561798</v>
+        <v>0.1748595505617977</v>
       </c>
       <c r="K30" t="n">
-        <v>0.309479054779807</v>
+        <v>0.3094790547798066</v>
       </c>
       <c r="L30" t="n">
-        <v>0.344739530132789</v>
+        <v>0.3447395301327886</v>
       </c>
       <c r="M30" t="n">
-        <v>0.274675774675775</v>
+        <v>0.2746757746757747</v>
       </c>
       <c r="N30" t="n">
-        <v>0.622459893048128</v>
+        <v>0.6224598930481283</v>
       </c>
       <c r="O30" t="n">
-        <v>0.427642832706124</v>
+        <v>0.4276428327061238</v>
       </c>
       <c r="P30" t="n">
-        <v>0.19077380952381</v>
+        <v>0.1907738095238095</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.19077380952381</v>
+        <v>0.245580808080808</v>
       </c>
       <c r="R30" t="n">
-        <v>0.245580808080808</v>
+        <v>0.5278378378378379</v>
       </c>
       <c r="S30" t="n">
-        <v>0.527837837837838</v>
+        <v>0.3079004329004329</v>
       </c>
       <c r="T30" t="n">
-        <v>0.307900432900433</v>
+        <v>0.4131892697466468</v>
       </c>
       <c r="U30" t="n">
-        <v>0.413189269746647</v>
+        <v>0.4084033613445378</v>
       </c>
       <c r="V30" t="n">
-        <v>0.408403361344538</v>
+        <v>0.3071262022733897</v>
       </c>
       <c r="W30" t="n">
-        <v>0.30712620227339</v>
+        <v>0.1823863636363636</v>
       </c>
       <c r="X30" t="n">
-        <v>0.182386363636364</v>
+        <v>0.2669977081741788</v>
       </c>
       <c r="Y30" t="n">
-        <v>0.266997708174179</v>
-      </c>
-      <c r="Z30" t="n">
-        <v>0.159210526315789</v>
-      </c>
-      <c r="AA30" t="n">
-        <v>0.442943510296618</v>
+        <v>0.1592105263157894</v>
       </c>
     </row>
     <row r="31">
@@ -3040,82 +2858,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.554644808743169</v>
+        <v>0.5546448087431693</v>
       </c>
       <c r="C31" t="n">
-        <v>0.391594891594892</v>
+        <v>0.3915948915948916</v>
       </c>
       <c r="D31" t="n">
-        <v>0.368903318903319</v>
+        <v>0.3689033189033189</v>
       </c>
       <c r="E31" t="n">
-        <v>0.377416756176155</v>
+        <v>0.3774167561761546</v>
       </c>
       <c r="F31" t="n">
-        <v>0.497249809014515</v>
+        <v>0.4972498090145149</v>
       </c>
       <c r="G31" t="n">
-        <v>0.819133807369101</v>
+        <v>0.8191338073691015</v>
       </c>
       <c r="H31" t="n">
         <v>0.517972972972973</v>
       </c>
       <c r="I31" t="n">
-        <v>0.225421348314607</v>
+        <v>0.2254213483146067</v>
       </c>
       <c r="J31" t="n">
-        <v>0.5965909090909089</v>
+        <v>0.5965909090909092</v>
       </c>
       <c r="K31" t="n">
-        <v>0.463690476190476</v>
+        <v>0.4636904761904762</v>
       </c>
       <c r="L31" t="n">
-        <v>0.745466985973315</v>
+        <v>0.7454669859733152</v>
       </c>
       <c r="M31" t="n">
         <v>0.746524064171123</v>
       </c>
       <c r="N31" t="n">
-        <v>0.417974882260596</v>
+        <v>0.4179748822605965</v>
       </c>
       <c r="O31" t="n">
-        <v>0.366447368421053</v>
+        <v>0.3664473684210526</v>
       </c>
       <c r="P31" t="n">
-        <v>0.471436898863305</v>
+        <v>0.4714368988633051</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.471436898863305</v>
+        <v>0.2789772727272727</v>
       </c>
       <c r="R31" t="n">
-        <v>0.278977272727273</v>
+        <v>0.4231699939503932</v>
       </c>
       <c r="S31" t="n">
-        <v>0.423169993950393</v>
+        <v>0.4593454790823212</v>
       </c>
       <c r="T31" t="n">
-        <v>0.459345479082321</v>
+        <v>0.6260162601626016</v>
       </c>
       <c r="U31" t="n">
-        <v>0.626016260162602</v>
+        <v>0.4518003064351379</v>
       </c>
       <c r="V31" t="n">
-        <v>0.451800306435138</v>
+        <v>0.5589826839826839</v>
       </c>
       <c r="W31" t="n">
-        <v>0.558982683982684</v>
+        <v>0.7525751524069791</v>
       </c>
       <c r="X31" t="n">
-        <v>0.752575152406979</v>
+        <v>0.2993464052287581</v>
       </c>
       <c r="Y31" t="n">
-        <v>0.299346405228758</v>
-      </c>
-      <c r="Z31" t="n">
-        <v>0.463293650793651</v>
-      </c>
-      <c r="AA31" t="n">
-        <v>0.56319667485358</v>
+        <v>0.4632936507936508</v>
       </c>
     </row>
   </sheetData>
